--- a/medicine/Enfance/Rafle_de_La_Varenne-Saint-Hilaire/Rafle_de_La_Varenne-Saint-Hilaire.xlsx
+++ b/medicine/Enfance/Rafle_de_La_Varenne-Saint-Hilaire/Rafle_de_La_Varenne-Saint-Hilaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Rafle de La Varenne-Saint-Hilaire a lieu le 22 juillet 1944 à La Varenne-Saint-Hilaire. Elle concerne les enfants de la pension Zysman, au 57 rue Georges-Clemenceau. et de l’orphelinat Beiss Yessoïmim, au 30 rue Saint-Hilaire, à  La Varenne[1]. Emmenés au Camp de Drancy, les 28 enfants sont déportés par le Convoi No. 77, du 31 juillet 1944, à Auschwitz, où ils sont assassinés à leur arrivée.
+La Rafle de La Varenne-Saint-Hilaire a lieu le 22 juillet 1944 à La Varenne-Saint-Hilaire. Elle concerne les enfants de la pension Zysman, au 57 rue Georges-Clemenceau. et de l’orphelinat Beiss Yessoïmim, au 30 rue Saint-Hilaire, à  La Varenne. Emmenés au Camp de Drancy, les 28 enfants sont déportés par le Convoi No. 77, du 31 juillet 1944, à Auschwitz, où ils sont assassinés à leur arrivée.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La communauté juive de La Varenne avait acquis en 1929 une maison, et y créa l'orphelinat "Beiss Yessoïmim" (Maison des orphelins) qui fut inauguré en 1934, sous la direction du docteur Wolf Perel[2].
-Le samedi 22 juillet 1944 une rafle frappe La Varenne-Saint-Hilaire. Des nazis et des collaborateurs, sous les ordres du  SS-Hauptsturmführer Aloïs Brunner, envahissent l’orphelinat, au 30 rue Saint-Hilaire et la pension d’enfants Zysman,  au 57, rue Georges-Clemenceau[3],[4],[5],[6],[7],[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La communauté juive de La Varenne avait acquis en 1929 une maison, et y créa l'orphelinat "Beiss Yessoïmim" (Maison des orphelins) qui fut inauguré en 1934, sous la direction du docteur Wolf Perel.
+Le samedi 22 juillet 1944 une rafle frappe La Varenne-Saint-Hilaire. Des nazis et des collaborateurs, sous les ordres du  SS-Hauptsturmführer Aloïs Brunner, envahissent l’orphelinat, au 30 rue Saint-Hilaire et la pension d’enfants Zysman,  au 57, rue Georges-Clemenceau.
 </t>
         </is>
       </c>
@@ -544,19 +558,21 @@
           <t>Les enfants de l'orphelinat Saint-Hilaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Par ordre alphabétique[3],[9]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par ordre alphabétique,:
 Volf Agrest (ou Volf Agrest-Bornsztajn), 10 ans,
-né le 21 octobre 1933 à Nancy. Avant l'UGIF/La Varenne, sa dernière adresse était: Savigny-sous-Faye (Vienne)[10].
+né le 21 octobre 1933 à Nancy. Avant l'UGIF/La Varenne, sa dernière adresse était: Savigny-sous-Faye (Vienne).
 Berthe Alter, 5 ans,
-née le 20 septembre 1938 dans le 10e arrondissement de Paris et dont l'adresse avant l'UGIF/La Varenne était au 17 rue Ferdinand Duval dans le 4e arrondissement de Paris. Elle est la sœur aînée de Charlotte Alter[11].
+née le 20 septembre 1938 dans le 10e arrondissement de Paris et dont l'adresse avant l'UGIF/La Varenne était au 17 rue Ferdinand Duval dans le 4e arrondissement de Paris. Elle est la sœur aînée de Charlotte Alter.
 Charlotte Alter, 4 ans,
-née le 2 mai 1940 à Paris et dont l'adresse avant l'UGIF/La Varenne était au 17 rue Ferdinand Duval dans le 4e arrondissement de Paris. Elle est la sœur cadette de Berthe Alter[11].
+née le 2 mai 1940 à Paris et dont l'adresse avant l'UGIF/La Varenne était au 17 rue Ferdinand Duval dans le 4e arrondissement de Paris. Elle est la sœur cadette de Berthe Alter.
 Raphaël Benderski, 6 ans,
-né le 5 juin 1938 à Nancy, dont l'adresse avant l'UGIF/La Varenne était au 17 boulevard Aristide Briand à Châtellerault (Vienne)[12].
+né le 5 juin 1938 à Nancy, dont l'adresse avant l'UGIF/La Varenne était au 17 boulevard Aristide Briand à Châtellerault (Vienne).
 Bernard Bernstein ou Bernath Bernstein, 5 ans,
-né le 25 juillet 1939 à Sedan  dont l'adresse avant l'UGIF/La Varenne était au 123 rue de Strasbourg à Niort (Deux Sèvres)[13].
+né le 25 juillet 1939 à Sedan  dont l'adresse avant l'UGIF/La Varenne était au 123 rue de Strasbourg à Niort (Deux Sèvres).
 Regina Bernstein (ou Régine Bernstein),  6 ans,
 née 9 décembre 1937 à Sedan, sœur de Bernard Bernstein.
 Simon Bernstein, 8 ans,
@@ -572,23 +588,22 @@
 Rolande Grumberger, 5 ans,
 née le 11 août 1938 à Metz dont l'adresse avant l'UGIF/La Varenne était à Virollet (Charente-Maritime. Elle est la sœur de Jean Grumberger et de Renée Grumberger.
 Emmanuel Holz, 4 ans,
-né le 6 mars 1940 à Nancy dont l'adresse avant l'UGIF/La Varenne, donnée explicitement comme le 30 rue Saint-Hilaire (UGIF) était à Naintré (Vienne)[14].  
+né le 6 mars 1940 à Nancy dont l'adresse avant l'UGIF/La Varenne, donnée explicitement comme le 30 rue Saint-Hilaire (UGIF) était à Naintré (Vienne).  
 Alain Jurkiewicz, 8 ans,
-né le 2 juin 1936 à Etterbeek (Bruxelles) (Belgique), qui avant l'UGIF/La Varenne venait de Bruxelles (Belgique) et avait été arrêté à Besançon (Doubs)[15].
+né le 2 juin 1936 à Etterbeek (Bruxelles) (Belgique), qui avant l'UGIF/La Varenne venait de Bruxelles (Belgique) et avait été arrêté à Besançon (Doubs).
 André Kane, 4 ans,
-né le 25 octobre 1939 à Saint Quentin (Aisne) dont l'adresse avant l'UGIF/La Varenne était au 40 rue des Glatiniers à Saint Quentin (Aisne)[16].
+né le 25 octobre 1939 à Saint Quentin (Aisne) dont l'adresse avant l'UGIF/La Varenne était au 40 rue des Glatiniers à Saint Quentin (Aisne).
 Alliah Sebbah, 3 ans,
-née le 2 novembre 1940 dans le 15e arrondissement de Paris, dont l'adresse avant l'UGIF/La Varenne est donnée explicitement comme le 30 rue Saint-Hilaire (UGIF)[17]. 
+née le 2 novembre 1940 dans le 15e arrondissement de Paris, dont l'adresse avant l'UGIF/La Varenne est donnée explicitement comme le 30 rue Saint-Hilaire (UGIF). 
 David Szwalberg, 9 ans, frère de Hermann (ou Armand) Szwalberg et de Madeleine Szwalberg
-né le 4 mars 1935 à Paris dont l'adresse avant l'UGIF/La Varenne était au 5 Impasse des Amandiers dans le 20e arrondissement de Paris[18].
+né le 4 mars 1935 à Paris dont l'adresse avant l'UGIF/La Varenne était au 5 Impasse des Amandiers dans le 20e arrondissement de Paris.
 Hermann Szwalberg (ou Armand Szwalberg), 10 ans, frère de David Swalberg et de Madeleine Szwalberg
-né le 5 février 1934 à Paris dont l'adresse avant l'UGIF/La Varenne était au 5 Impasse des Amandiers dans le 20e arrondissement de Paris[18].
+né le 5 février 1934 à Paris dont l'adresse avant l'UGIF/La Varenne était au 5 Impasse des Amandiers dans le 20e arrondissement de Paris.
 Madeleine Szwalberg, 7 ans, sœur de David Szwalberg et de Hermann (ou Armand) Szwalberg
-née le 20 novembre 1936 à Paris dont l'adresse avant l'UGIF/La Varenne était au 5 Impasse des Amandiers dans le 20e arrondissement de Paris[18].
+née le 20 novembre 1936 à Paris dont l'adresse avant l'UGIF/La Varenne était au 5 Impasse des Amandiers dans le 20e arrondissement de Paris.
 Jacques Tabak, 7 ans,
-né le 2 août 1936 à Metz dont l'adresse avant l'UGIF/La Varenne était à Mareuil en Charente[19].
-Seul enfant de l'orphelinat rescapé de la Rafle
-Albert Szerman, 8 ans</t>
+né le 2 août 1936 à Metz dont l'adresse avant l'UGIF/La Varenne était à Mareuil en Charente.
+</t>
         </is>
       </c>
     </row>
@@ -613,25 +628,63 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Les enfants de l'orphelinat Saint-Hilaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Seul enfant de l'orphelinat rescapé de la Rafle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Albert Szerman, 8 ans</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rafle_de_La_Varenne-Saint-Hilaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rafle_de_La_Varenne-Saint-Hilaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Les enfants de la pension Zysman</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par ordre alphabétique[3],[9]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par ordre alphabétique,:
 Justine Friedrich, 6 ans,
 née le 14 avril 1938 dans le 10e arrondissement de Paris dont l'adresse avant l'UGIF/La Varenne était au 100 Faubourg Pont Neuf à Poitiers (Vienne).
 Jacob Hopensztand, 10 ans
 Paul Jakubowicz, 6 ans,
-né le 5 juin 1938 à Strasbourg dont l'adresse avant l'UGIF/La Varenne était au 75 rue Desvergne à Tours (Indre-et-Loire)[20].
+né le 5 juin 1938 à Strasbourg dont l'adresse avant l'UGIF/La Varenne était au 75 rue Desvergne à Tours (Indre-et-Loire).
 Isak Rachow, 7 ans,
-né  le 16 octobre 1936 dans le 10e arrondissement de Paris dont l'adresse avant l'UGIF/La Varenne était au 3 rue Solférino à Aubervilliers (Seine)[21].
+né  le 16 octobre 1936 dans le 10e arrondissement de Paris dont l'adresse avant l'UGIF/La Varenne était au 3 rue Solférino à Aubervilliers (Seine).
 Suzanne Sterber, 5 ans,
 née le 22 octobre 1938 dans le 18e arrondissement de Paris dont l'adresse avant l'UGIF/La Varenne était au 13 Faubourg Poissonnière dans le 9e arrondissement de Paris
 Édouard Wajnryb, 4 ans,
-né le 11 août 1939, à Neuilly-sur-Seine dont l'adresse avant l'UGIF/La Varenne était au 23 rue Ruhmkorff dans le 17e arrondissement de Paris[22].
+né le 11 août 1939, à Neuilly-sur-Seine dont l'adresse avant l'UGIF/La Varenne était au 23 rue Ruhmkorff dans le 17e arrondissement de Paris.
 Michel Westreich, 4 ans,
-né le 24 février 1940 à Metz dont l'adresse avant l'UGIF/La Varenne était à Saint-Privat-des-Prés (Dordogne)[23].
+né le 24 février 1940 à Metz dont l'adresse avant l'UGIF/La Varenne était à Saint-Privat-des-Prés (Dordogne).
 </t>
         </is>
       </c>
